--- a/individualdata.xlsx
+++ b/individualdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzgra\Documents\FS2021\Meta-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938472FD-647D-4A86-A0BE-2186E9D57363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF1D2DF-979F-45C0-A160-48DF26646CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{934F6760-9EF5-4CAA-AD1A-B900B7641647}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
   <si>
     <t>Starr et al.</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Magariños-Ascone et al.</t>
-  </si>
-  <si>
-    <t>Trottenberg et al. (1)</t>
-  </si>
-  <si>
-    <t>Trottenberg et al. (2)</t>
   </si>
   <si>
     <t>Franzini et al.</t>
@@ -116,6 +110,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>Trottenberg et al.</t>
   </si>
 </sst>
 </file>
@@ -467,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC8A34-A334-4D19-9726-80AB63129A13}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,33 +479,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -523,11 +520,11 @@
         <v>5.5</v>
       </c>
       <c r="F2">
-        <f>C2-E2</f>
+        <f t="shared" ref="F2:F21" si="0">C2-E2</f>
         <v>59.5</v>
       </c>
       <c r="G2">
-        <f>F2/C2*100</f>
+        <f t="shared" ref="G2:G10" si="1">F2/C2*100</f>
         <v>91.538461538461533</v>
       </c>
       <c r="H2">
@@ -536,7 +533,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -551,11 +548,11 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <f>C3-E3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G3">
-        <f>F3/C3*100</f>
+        <f t="shared" si="1"/>
         <v>45.454545454545453</v>
       </c>
       <c r="H3">
@@ -564,7 +561,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -579,11 +576,11 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <f>C4-E4</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G4">
-        <f>F4/C4*100</f>
+        <f t="shared" si="1"/>
         <v>88.888888888888886</v>
       </c>
       <c r="H4">
@@ -592,7 +589,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -607,11 +604,11 @@
         <v>5.5</v>
       </c>
       <c r="F5">
-        <f>C5-E5</f>
+        <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
       <c r="G5">
-        <f>F5/C5*100</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
       <c r="H5">
@@ -629,17 +626,17 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <f>C6-E6</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G6">
-        <f>F6/C6*100</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H6">
@@ -657,17 +654,17 @@
         <v>30.5</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>7</v>
       </c>
       <c r="F7">
-        <f>C7-E7</f>
+        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
       <c r="G7">
-        <f>F7/C7*100</f>
+        <f t="shared" si="1"/>
         <v>77.049180327868854</v>
       </c>
       <c r="H7">
@@ -685,17 +682,17 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>48</v>
       </c>
       <c r="F8">
-        <f>C8-E8</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G8">
-        <f>F8/C8*100</f>
+        <f t="shared" si="1"/>
         <v>22.58064516129032</v>
       </c>
       <c r="H8">
@@ -713,17 +710,17 @@
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <f>C9-E9</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="G9">
-        <f>F9/C9*100</f>
+        <f t="shared" si="1"/>
         <v>97.777777777777771</v>
       </c>
       <c r="H9">
@@ -741,17 +738,17 @@
         <v>45.5</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>12</v>
       </c>
       <c r="F10">
-        <f>C10-E10</f>
+        <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
       <c r="G10">
-        <f>F10/C10*100</f>
+        <f t="shared" si="1"/>
         <v>73.626373626373635</v>
       </c>
       <c r="H10">
@@ -760,7 +757,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -775,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <f>C11-E11</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G11">
@@ -787,7 +784,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -802,7 +799,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <f>C12-E12</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="G12">
@@ -829,11 +826,11 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <f>C13-E13</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G21" si="0">F13/C13*100</f>
+        <f t="shared" ref="G13:G21" si="2">F13/C13*100</f>
         <v>82.222222222222214</v>
       </c>
       <c r="H13">
@@ -857,11 +854,11 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <f>C14-E14</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>74.193548387096769</v>
       </c>
       <c r="H14">
@@ -885,11 +882,11 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <f>C15-E15</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.307692307692307</v>
       </c>
       <c r="H15">
@@ -913,11 +910,11 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <f>C16-E16</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="H16">
@@ -941,11 +938,11 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <f>C17-E17</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65.909090909090907</v>
       </c>
       <c r="H17">
@@ -969,11 +966,11 @@
         <v>18</v>
       </c>
       <c r="F18">
-        <f>C18-E18</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45.454545454545453</v>
       </c>
       <c r="H18">
@@ -997,11 +994,11 @@
         <v>16</v>
       </c>
       <c r="F19">
-        <f>C19-E19</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55.555555555555557</v>
       </c>
       <c r="H19">
@@ -1025,11 +1022,11 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <f>C20-E20</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>84.210526315789465</v>
       </c>
       <c r="H20">
@@ -1053,11 +1050,11 @@
         <v>4</v>
       </c>
       <c r="F21">
-        <f>C21-E21</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73.333333333333329</v>
       </c>
       <c r="H21">
@@ -1066,7 +1063,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1081,11 +1078,11 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F29" si="1">C22-E22</f>
+        <f t="shared" ref="F22:F29" si="3">C22-E22</f>
         <v>13</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G29" si="2">F22/C22*100</f>
+        <f t="shared" ref="G22:G29" si="4">F22/C22*100</f>
         <v>92.857142857142861</v>
       </c>
       <c r="H22">
@@ -1094,7 +1091,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1109,11 +1106,11 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94.285714285714278</v>
       </c>
       <c r="H23">
@@ -1122,7 +1119,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1137,11 +1134,11 @@
         <v>18</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H24">
@@ -1150,7 +1147,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1165,11 +1162,11 @@
         <v>42</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46.153846153846153</v>
       </c>
       <c r="H25">
@@ -1178,7 +1175,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1193,11 +1190,11 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="H26">
@@ -1206,7 +1203,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -1221,11 +1218,11 @@
         <v>18</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H27">
@@ -1234,7 +1231,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -1249,11 +1246,11 @@
         <v>85</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.608695652173914</v>
       </c>
       <c r="H28">
@@ -1262,7 +1259,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -1277,11 +1274,11 @@
         <v>65</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29">
@@ -1305,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30" si="3">C30-E30</f>
+        <f t="shared" ref="F30" si="5">C30-E30</f>
         <v>23</v>
       </c>
       <c r="G30">
@@ -1332,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F41" si="4">C31-E31</f>
+        <f t="shared" ref="F31:F41" si="6">C31-E31</f>
         <v>19</v>
       </c>
       <c r="G31">
@@ -1359,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="G32">
@@ -1387,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="G33">
@@ -1414,7 +1411,7 @@
         <v>3.5</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
       <c r="G34">
@@ -1442,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="G35">
@@ -1470,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="G36">
@@ -1497,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="G37">
@@ -1524,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28.5</v>
       </c>
       <c r="G38">
@@ -1551,7 +1548,7 @@
         <v>45</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G39">
@@ -1578,7 +1575,7 @@
         <v>55</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="G40">
@@ -1605,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G41">
@@ -1632,11 +1629,11 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <f>C42-E42</f>
+        <f t="shared" ref="F42:F52" si="7">C42-E42</f>
         <v>11</v>
       </c>
       <c r="G42">
-        <f>F42/C42*100</f>
+        <f t="shared" ref="G42:G51" si="8">F42/C42*100</f>
         <v>47.826086956521742</v>
       </c>
       <c r="H42">
@@ -1660,11 +1657,11 @@
         <v>14</v>
       </c>
       <c r="F43">
-        <f>C43-E43</f>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="G43">
-        <f>F43/C43*100</f>
+        <f t="shared" si="8"/>
         <v>87.5</v>
       </c>
       <c r="H43">
@@ -1688,11 +1685,11 @@
         <v>24</v>
       </c>
       <c r="F44">
-        <f>C44-E44</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="G44">
-        <f>F44/C44*100</f>
+        <f t="shared" si="8"/>
         <v>47.826086956521742</v>
       </c>
       <c r="H44">
@@ -1716,11 +1713,11 @@
         <v>30</v>
       </c>
       <c r="F45">
-        <f>C45-E45</f>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="G45">
-        <f>F45/C45*100</f>
+        <f t="shared" si="8"/>
         <v>63.636363636363633</v>
       </c>
       <c r="H45">
@@ -1744,11 +1741,11 @@
         <v>16</v>
       </c>
       <c r="F46">
-        <f>C46-E46</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="G46">
-        <f>F46/C46*100</f>
+        <f t="shared" si="8"/>
         <v>70.909090909090907</v>
       </c>
       <c r="H46">
@@ -1772,11 +1769,11 @@
         <v>12</v>
       </c>
       <c r="F47">
-        <f>C47-E47</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="G47">
-        <f>F47/C47*100</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="H47">
@@ -1800,11 +1797,11 @@
         <v>18</v>
       </c>
       <c r="F48">
-        <f>C48-E48</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="G48">
-        <f>F48/C48*100</f>
+        <f t="shared" si="8"/>
         <v>68.421052631578945</v>
       </c>
       <c r="H48">
@@ -1828,11 +1825,11 @@
         <v>21</v>
       </c>
       <c r="F49">
-        <f>C49-E49</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="G49">
-        <f>F49/C49*100</f>
+        <f t="shared" si="8"/>
         <v>67.1875</v>
       </c>
       <c r="H49">
@@ -1856,11 +1853,11 @@
         <v>31</v>
       </c>
       <c r="F50">
-        <f>C50-E50</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="G50">
-        <f>F50/C50*100</f>
+        <f t="shared" si="8"/>
         <v>49.180327868852459</v>
       </c>
       <c r="H50">
@@ -1884,11 +1881,11 @@
         <v>30</v>
       </c>
       <c r="F51">
-        <f>C51-E51</f>
+        <f t="shared" si="7"/>
         <v>22.5</v>
       </c>
       <c r="G51">
-        <f>F51/C51*100</f>
+        <f t="shared" si="8"/>
         <v>42.857142857142854</v>
       </c>
       <c r="H51">
@@ -1912,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <f>C52-E52</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="G52">
@@ -1939,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:F57" si="5">C53-E53</f>
+        <f t="shared" ref="F53:F57" si="9">C53-E53</f>
         <v>19</v>
       </c>
       <c r="G53">
@@ -1966,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="G54">
@@ -1993,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="G55">
@@ -2020,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="G56">
@@ -2047,7 +2044,7 @@
         <v>9</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="G57">
@@ -2059,22 +2056,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G58">
         <v>87</v>
@@ -2085,22 +2082,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G59">
         <v>67</v>
@@ -2111,22 +2108,22 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D60">
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G60">
         <v>100</v>
@@ -2137,22 +2134,22 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D61">
         <v>36</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G61">
         <v>100</v>
@@ -2163,22 +2160,22 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D62">
         <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G62">
         <v>78</v>
@@ -2189,22 +2186,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D63">
         <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G63">
         <v>88</v>
@@ -2215,22 +2212,22 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G64">
         <v>67</v>
@@ -2241,22 +2238,22 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B65">
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D65">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G65">
         <v>94</v>
@@ -2282,11 +2279,11 @@
         <v>68</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F84" si="6">C66-E66</f>
+        <f t="shared" ref="F66:F84" si="10">C66-E66</f>
         <v>8.5</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G84" si="7">F66/C66*100</f>
+        <f t="shared" ref="G66:G84" si="11">F66/C66*100</f>
         <v>11.111111111111111</v>
       </c>
       <c r="H66">
@@ -2310,11 +2307,11 @@
         <v>6</v>
       </c>
       <c r="F67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="G67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="H67">
@@ -2338,11 +2335,11 @@
         <v>0.5</v>
       </c>
       <c r="F68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.5</v>
       </c>
       <c r="G68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>93.75</v>
       </c>
       <c r="H68">
@@ -2366,11 +2363,11 @@
         <v>51</v>
       </c>
       <c r="F69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-17</v>
       </c>
       <c r="G69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-50</v>
       </c>
       <c r="H69">
@@ -2394,11 +2391,11 @@
         <v>0.5</v>
       </c>
       <c r="F70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.5</v>
       </c>
       <c r="G70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>91.666666666666657</v>
       </c>
       <c r="H70">
@@ -2422,11 +2419,11 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="G71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>97.5</v>
       </c>
       <c r="H71">
@@ -2450,11 +2447,11 @@
         <v>3.5</v>
       </c>
       <c r="F72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="G72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>66.666666666666657</v>
       </c>
       <c r="H72">
@@ -2478,11 +2475,11 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="G73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>66.666666666666657</v>
       </c>
       <c r="H73">
@@ -2506,11 +2503,11 @@
         <v>4</v>
       </c>
       <c r="F74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="G74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42.857142857142854</v>
       </c>
       <c r="H74">
@@ -2534,11 +2531,11 @@
         <v>10.5</v>
       </c>
       <c r="F75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.5</v>
       </c>
       <c r="G75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>47.5</v>
       </c>
       <c r="H75">
@@ -2562,11 +2559,11 @@
         <v>8</v>
       </c>
       <c r="F76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="G76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>66.666666666666657</v>
       </c>
       <c r="H76">
@@ -2590,11 +2587,11 @@
         <v>2.5</v>
       </c>
       <c r="F77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.5</v>
       </c>
       <c r="G77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>88.63636363636364</v>
       </c>
       <c r="H77">
@@ -2618,11 +2615,11 @@
         <v>7</v>
       </c>
       <c r="F78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18.5</v>
       </c>
       <c r="G78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>72.549019607843135</v>
       </c>
       <c r="H78">
@@ -2646,11 +2643,11 @@
         <v>1.5</v>
       </c>
       <c r="F79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>25.5</v>
       </c>
       <c r="G79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>94.444444444444443</v>
       </c>
       <c r="H79">
@@ -2674,11 +2671,11 @@
         <v>4</v>
       </c>
       <c r="F80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>73.333333333333329</v>
       </c>
       <c r="H80">
@@ -2702,11 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="G81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>79.166666666666657</v>
       </c>
       <c r="H81">
@@ -2730,11 +2727,11 @@
         <v>4.5</v>
       </c>
       <c r="F82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="G82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>79.069767441860463</v>
       </c>
       <c r="H82">
@@ -2758,11 +2755,11 @@
         <v>4</v>
       </c>
       <c r="F83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="G83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>73.333333333333329</v>
       </c>
       <c r="H83">
@@ -2786,11 +2783,11 @@
         <v>15</v>
       </c>
       <c r="F84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="G84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>68.085106382978722</v>
       </c>
       <c r="H84">
@@ -2894,11 +2891,11 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <f t="shared" ref="F88:F108" si="8">C88-E88</f>
+        <f t="shared" ref="F88:F108" si="12">C88-E88</f>
         <v>52</v>
       </c>
       <c r="G88">
-        <f t="shared" ref="G88:G108" si="9">F88/C88*100</f>
+        <f t="shared" ref="G88:G108" si="13">F88/C88*100</f>
         <v>100</v>
       </c>
       <c r="H88">
@@ -2922,11 +2919,11 @@
         <v>44</v>
       </c>
       <c r="F89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="G89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>51.111111111111107</v>
       </c>
       <c r="H89">
@@ -2950,11 +2947,11 @@
         <v>64</v>
       </c>
       <c r="F90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="G90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13.513513513513514</v>
       </c>
       <c r="H90">
@@ -2978,11 +2975,11 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="G91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>75.862068965517238</v>
       </c>
       <c r="H91">
@@ -3006,11 +3003,11 @@
         <v>22</v>
       </c>
       <c r="F92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>27.5</v>
       </c>
       <c r="G92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>55.555555555555557</v>
       </c>
       <c r="H92">
@@ -3034,11 +3031,11 @@
         <v>5</v>
       </c>
       <c r="F93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="G93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>73.68421052631578</v>
       </c>
       <c r="H93">
@@ -3062,11 +3059,11 @@
         <v>14</v>
       </c>
       <c r="F94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>21.5</v>
       </c>
       <c r="G94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>60.563380281690137</v>
       </c>
       <c r="H94">
@@ -3090,11 +3087,11 @@
         <v>18</v>
       </c>
       <c r="F95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="G95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="H95">
@@ -3118,11 +3115,11 @@
         <v>47.5</v>
       </c>
       <c r="F96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-12</v>
       </c>
       <c r="G96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-33.802816901408448</v>
       </c>
       <c r="H96">
@@ -3146,11 +3143,11 @@
         <v>33</v>
       </c>
       <c r="F97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-5</v>
       </c>
       <c r="G97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-17.857142857142858</v>
       </c>
       <c r="H97">
@@ -3174,11 +3171,11 @@
         <v>27</v>
       </c>
       <c r="F98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="G98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>34.146341463414636</v>
       </c>
       <c r="H98">
@@ -3202,11 +3199,11 @@
         <v>3</v>
       </c>
       <c r="F99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="G99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="H99">
@@ -3230,11 +3227,11 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="G100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="H100">
@@ -3258,11 +3255,11 @@
         <v>7.5</v>
       </c>
       <c r="F101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30.5</v>
       </c>
       <c r="G101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>80.26315789473685</v>
       </c>
       <c r="H101">
@@ -3286,11 +3283,11 @@
         <v>53.5</v>
       </c>
       <c r="F102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
       <c r="G102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.140350877192982</v>
       </c>
       <c r="H102">
@@ -3314,11 +3311,11 @@
         <v>37.5</v>
       </c>
       <c r="F103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>42.5</v>
       </c>
       <c r="G103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>53.125</v>
       </c>
       <c r="H103">
@@ -3342,11 +3339,11 @@
         <v>49.5</v>
       </c>
       <c r="F104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
       <c r="G104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="H104">
@@ -3370,11 +3367,11 @@
         <v>51</v>
       </c>
       <c r="F105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="G105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>37.804878048780488</v>
       </c>
       <c r="H105">
@@ -3398,11 +3395,11 @@
         <v>6</v>
       </c>
       <c r="F106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="G106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="H106">
@@ -3426,11 +3423,11 @@
         <v>71</v>
       </c>
       <c r="F107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="G107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16.470588235294116</v>
       </c>
       <c r="H107">
@@ -3454,11 +3451,11 @@
         <v>64.5</v>
       </c>
       <c r="F108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>16.5</v>
       </c>
       <c r="G108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>20.37037037037037</v>
       </c>
       <c r="H108">
@@ -3467,53 +3464,53 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>34.5</v>
+        <v>31</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E109">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="F109">
-        <f>C109-E109</f>
-        <v>25</v>
+        <f t="shared" ref="F109:F113" si="14">C109-E109</f>
+        <v>23.5</v>
       </c>
       <c r="G109">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H109">
-        <v>2001</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D110">
         <v>6</v>
       </c>
       <c r="E110">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="F110">
-        <f>C110-E110</f>
-        <v>23.5</v>
+        <f t="shared" si="14"/>
+        <v>31.5</v>
       </c>
       <c r="G110">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H110">
         <v>2005</v>
@@ -3521,23 +3518,23 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D111">
         <v>6</v>
       </c>
       <c r="E111">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F111">
-        <f>C111-E111</f>
-        <v>31.5</v>
+        <f t="shared" si="14"/>
+        <v>26</v>
       </c>
       <c r="G111">
         <v>93</v>
@@ -3548,26 +3545,26 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D112">
         <v>6</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <f>C112-E112</f>
-        <v>26</v>
+        <f t="shared" si="14"/>
+        <v>59</v>
       </c>
       <c r="G112">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H112">
         <v>2005</v>
@@ -3575,26 +3572,27 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D113">
         <v>6</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <f>C113-G113/100*C113</f>
+        <v>2</v>
       </c>
       <c r="F113">
-        <f>C113-E113</f>
-        <v>59</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="G113">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H113">
         <v>2005</v>
@@ -3602,27 +3600,27 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E114">
-        <f>C114-G114/100*C114</f>
-        <v>2</v>
+        <v>23.5</v>
       </c>
       <c r="F114">
-        <f>C114-E114</f>
-        <v>6</v>
+        <f t="shared" ref="F114:F135" si="15">C114-E114</f>
+        <v>27.5</v>
       </c>
       <c r="G114">
-        <v>75</v>
+        <f t="shared" ref="G114:G135" si="16">F114/C114*100</f>
+        <v>53.921568627450981</v>
       </c>
       <c r="H114">
         <v>2005</v>
@@ -3633,24 +3631,24 @@
         <v>7</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D115">
         <v>12</v>
       </c>
       <c r="E115">
-        <v>23.5</v>
+        <v>29</v>
       </c>
       <c r="F115">
-        <f t="shared" ref="F115:F136" si="10">C115-E115</f>
-        <v>27.5</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="G115">
-        <f t="shared" ref="G115:G136" si="11">F115/C115*100</f>
-        <v>53.921568627450981</v>
+        <f t="shared" si="16"/>
+        <v>9.375</v>
       </c>
       <c r="H115">
         <v>2005</v>
@@ -3661,24 +3659,24 @@
         <v>7</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D116">
         <v>12</v>
       </c>
       <c r="E116">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>48</v>
       </c>
       <c r="G116">
-        <f t="shared" si="11"/>
-        <v>9.375</v>
+        <f t="shared" si="16"/>
+        <v>85.714285714285708</v>
       </c>
       <c r="H116">
         <v>2005</v>
@@ -3689,10 +3687,10 @@
         <v>7</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D117">
         <v>12</v>
@@ -3701,12 +3699,12 @@
         <v>8</v>
       </c>
       <c r="F117">
-        <f t="shared" si="10"/>
-        <v>48</v>
+        <f t="shared" si="15"/>
+        <v>26</v>
       </c>
       <c r="G117">
-        <f t="shared" si="11"/>
-        <v>85.714285714285708</v>
+        <f t="shared" si="16"/>
+        <v>76.470588235294116</v>
       </c>
       <c r="H117">
         <v>2005</v>
@@ -3717,24 +3715,24 @@
         <v>7</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D118">
         <v>12</v>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F118">
-        <f t="shared" si="10"/>
-        <v>26</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="G118">
-        <f t="shared" si="11"/>
-        <v>76.470588235294116</v>
+        <f t="shared" si="16"/>
+        <v>52.631578947368418</v>
       </c>
       <c r="H118">
         <v>2005</v>
@@ -3745,24 +3743,24 @@
         <v>7</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>19</v>
+        <v>35.5</v>
       </c>
       <c r="D119">
         <v>12</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F119">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>23.5</v>
       </c>
       <c r="G119">
-        <f t="shared" si="11"/>
-        <v>52.631578947368418</v>
+        <f t="shared" si="16"/>
+        <v>66.197183098591552</v>
       </c>
       <c r="H119">
         <v>2005</v>
@@ -3773,24 +3771,24 @@
         <v>7</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>35.5</v>
+        <v>31.5</v>
       </c>
       <c r="D120">
         <v>12</v>
       </c>
       <c r="E120">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F120">
-        <f t="shared" si="10"/>
-        <v>23.5</v>
+        <f t="shared" si="15"/>
+        <v>24.5</v>
       </c>
       <c r="G120">
-        <f t="shared" si="11"/>
-        <v>66.197183098591552</v>
+        <f t="shared" si="16"/>
+        <v>77.777777777777786</v>
       </c>
       <c r="H120">
         <v>2005</v>
@@ -3801,24 +3799,24 @@
         <v>7</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>31.5</v>
+        <v>39</v>
       </c>
       <c r="D121">
         <v>12</v>
       </c>
       <c r="E121">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F121">
-        <f t="shared" si="10"/>
-        <v>24.5</v>
+        <f t="shared" si="15"/>
+        <v>25</v>
       </c>
       <c r="G121">
-        <f t="shared" si="11"/>
-        <v>77.777777777777786</v>
+        <f t="shared" si="16"/>
+        <v>64.102564102564102</v>
       </c>
       <c r="H121">
         <v>2005</v>
@@ -3829,24 +3827,24 @@
         <v>7</v>
       </c>
       <c r="B122">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D122">
         <v>12</v>
       </c>
       <c r="E122">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F122">
-        <f t="shared" si="10"/>
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>26</v>
       </c>
       <c r="G122">
-        <f t="shared" si="11"/>
-        <v>64.102564102564102</v>
+        <f t="shared" si="16"/>
+        <v>86.666666666666671</v>
       </c>
       <c r="H122">
         <v>2005</v>
@@ -3857,24 +3855,24 @@
         <v>7</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D123">
         <v>12</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>25.5</v>
       </c>
       <c r="F123">
-        <f t="shared" si="10"/>
-        <v>26</v>
+        <f t="shared" si="15"/>
+        <v>-6.5</v>
       </c>
       <c r="G123">
-        <f t="shared" si="11"/>
-        <v>86.666666666666671</v>
+        <f t="shared" si="16"/>
+        <v>-34.210526315789473</v>
       </c>
       <c r="H123">
         <v>2005</v>
@@ -3885,24 +3883,24 @@
         <v>7</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>19</v>
+        <v>102.5</v>
       </c>
       <c r="D124">
         <v>12</v>
       </c>
       <c r="E124">
-        <v>25.5</v>
+        <v>34</v>
       </c>
       <c r="F124">
-        <f t="shared" si="10"/>
-        <v>-6.5</v>
+        <f t="shared" si="15"/>
+        <v>68.5</v>
       </c>
       <c r="G124">
-        <f t="shared" si="11"/>
-        <v>-34.210526315789473</v>
+        <f t="shared" si="16"/>
+        <v>66.829268292682926</v>
       </c>
       <c r="H124">
         <v>2005</v>
@@ -3913,24 +3911,24 @@
         <v>7</v>
       </c>
       <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>39</v>
+      </c>
+      <c r="D125">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>28</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="C125">
-        <v>102.5</v>
-      </c>
-      <c r="D125">
-        <v>12</v>
-      </c>
-      <c r="E125">
-        <v>34</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="10"/>
-        <v>68.5</v>
-      </c>
       <c r="G125">
-        <f t="shared" si="11"/>
-        <v>66.829268292682926</v>
+        <f t="shared" si="16"/>
+        <v>28.205128205128204</v>
       </c>
       <c r="H125">
         <v>2005</v>
@@ -3941,24 +3939,24 @@
         <v>7</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D126">
         <v>12</v>
       </c>
       <c r="E126">
-        <v>28</v>
+        <v>4.5</v>
       </c>
       <c r="F126">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="15"/>
+        <v>57.5</v>
       </c>
       <c r="G126">
-        <f t="shared" si="11"/>
-        <v>28.205128205128204</v>
+        <f t="shared" si="16"/>
+        <v>92.741935483870961</v>
       </c>
       <c r="H126">
         <v>2005</v>
@@ -3969,24 +3967,24 @@
         <v>7</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D127">
         <v>12</v>
       </c>
       <c r="E127">
-        <v>4.5</v>
+        <v>46</v>
       </c>
       <c r="F127">
-        <f t="shared" si="10"/>
-        <v>57.5</v>
+        <f t="shared" si="15"/>
+        <v>-4</v>
       </c>
       <c r="G127">
-        <f t="shared" si="11"/>
-        <v>92.741935483870961</v>
+        <f t="shared" si="16"/>
+        <v>-9.5238095238095237</v>
       </c>
       <c r="H127">
         <v>2005</v>
@@ -3997,24 +3995,24 @@
         <v>7</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D128">
         <v>12</v>
       </c>
       <c r="E128">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F128">
-        <f t="shared" si="10"/>
-        <v>-4</v>
+        <f t="shared" si="15"/>
+        <v>9</v>
       </c>
       <c r="G128">
-        <f t="shared" si="11"/>
-        <v>-9.5238095238095237</v>
+        <f t="shared" si="16"/>
+        <v>24.324324324324326</v>
       </c>
       <c r="H128">
         <v>2005</v>
@@ -4025,24 +4023,24 @@
         <v>7</v>
       </c>
       <c r="B129">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D129">
         <v>12</v>
       </c>
       <c r="E129">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" si="15"/>
+        <v>25</v>
       </c>
       <c r="G129">
-        <f t="shared" si="11"/>
-        <v>24.324324324324326</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="H129">
         <v>2005</v>
@@ -4053,24 +4051,24 @@
         <v>7</v>
       </c>
       <c r="B130">
+        <v>17</v>
+      </c>
+      <c r="C130">
+        <v>59.5</v>
+      </c>
+      <c r="D130">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>43.5</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="C130">
-        <v>25</v>
-      </c>
-      <c r="D130">
-        <v>12</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
       <c r="G130">
-        <f t="shared" si="11"/>
-        <v>100</v>
+        <f t="shared" si="16"/>
+        <v>26.890756302521009</v>
       </c>
       <c r="H130">
         <v>2005</v>
@@ -4081,24 +4079,24 @@
         <v>7</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>59.5</v>
+        <v>61</v>
       </c>
       <c r="D131">
         <v>12</v>
       </c>
       <c r="E131">
-        <v>43.5</v>
+        <v>30</v>
       </c>
       <c r="F131">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>31</v>
       </c>
       <c r="G131">
-        <f t="shared" si="11"/>
-        <v>26.890756302521009</v>
+        <f t="shared" si="16"/>
+        <v>50.819672131147541</v>
       </c>
       <c r="H131">
         <v>2005</v>
@@ -4109,24 +4107,24 @@
         <v>7</v>
       </c>
       <c r="B132">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D132">
         <v>12</v>
       </c>
       <c r="E132">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F132">
-        <f t="shared" si="10"/>
-        <v>31</v>
+        <f t="shared" si="15"/>
+        <v>13</v>
       </c>
       <c r="G132">
-        <f t="shared" si="11"/>
-        <v>50.819672131147541</v>
+        <f t="shared" si="16"/>
+        <v>30.952380952380953</v>
       </c>
       <c r="H132">
         <v>2005</v>
@@ -4137,24 +4135,24 @@
         <v>7</v>
       </c>
       <c r="B133">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>42</v>
+        <v>95.5</v>
       </c>
       <c r="D133">
         <v>12</v>
       </c>
       <c r="E133">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F133">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f t="shared" si="15"/>
+        <v>54.5</v>
       </c>
       <c r="G133">
-        <f t="shared" si="11"/>
-        <v>30.952380952380953</v>
+        <f t="shared" si="16"/>
+        <v>57.068062827225127</v>
       </c>
       <c r="H133">
         <v>2005</v>
@@ -4165,24 +4163,24 @@
         <v>7</v>
       </c>
       <c r="B134">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C134">
-        <v>95.5</v>
+        <v>58.5</v>
       </c>
       <c r="D134">
         <v>12</v>
       </c>
       <c r="E134">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F134">
-        <f t="shared" si="10"/>
-        <v>54.5</v>
+        <f t="shared" si="15"/>
+        <v>51.5</v>
       </c>
       <c r="G134">
-        <f t="shared" si="11"/>
-        <v>57.068062827225127</v>
+        <f t="shared" si="16"/>
+        <v>88.034188034188034</v>
       </c>
       <c r="H134">
         <v>2005</v>
@@ -4193,54 +4191,26 @@
         <v>7</v>
       </c>
       <c r="B135">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>58.5</v>
+        <v>44.5</v>
       </c>
       <c r="D135">
         <v>12</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F135">
-        <f t="shared" si="10"/>
-        <v>51.5</v>
+        <f t="shared" si="15"/>
+        <v>12.5</v>
       </c>
       <c r="G135">
-        <f t="shared" si="11"/>
-        <v>88.034188034188034</v>
+        <f t="shared" si="16"/>
+        <v>28.08988764044944</v>
       </c>
       <c r="H135">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136">
-        <v>22</v>
-      </c>
-      <c r="C136">
-        <v>44.5</v>
-      </c>
-      <c r="D136">
-        <v>12</v>
-      </c>
-      <c r="E136">
-        <v>32</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="10"/>
-        <v>12.5</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="11"/>
-        <v>28.08988764044944</v>
-      </c>
-      <c r="H136">
         <v>2005</v>
       </c>
     </row>
@@ -4251,10 +4221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB01336-CC0D-4FC8-826B-92D67E5CEDF1}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,24 +4234,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -4315,7 +4285,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -4349,7 +4319,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -4417,7 +4387,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -4485,52 +4455,35 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>15.41</v>
+        <v>10.7</v>
       </c>
       <c r="E14">
-        <v>2001</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>87</v>
+        <v>51.05</v>
       </c>
       <c r="D15">
-        <v>10.7</v>
+        <v>34.82</v>
       </c>
       <c r="E15">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>51.05</v>
-      </c>
-      <c r="D16">
-        <v>34.82</v>
-      </c>
-      <c r="E16">
         <v>2005</v>
       </c>
     </row>

--- a/individualdata.xlsx
+++ b/individualdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzgra\Documents\FS2021\Meta-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF1D2DF-979F-45C0-A160-48DF26646CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960A1F3A-A689-40A0-835E-A3104B308222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{934F6760-9EF5-4CAA-AD1A-B900B7641647}"/>
+    <workbookView xWindow="6000" yWindow="2910" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{934F6760-9EF5-4CAA-AD1A-B900B7641647}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -466,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC8A34-A334-4D19-9726-80AB63129A13}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
@@ -4223,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB01336-CC0D-4FC8-826B-92D67E5CEDF1}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="D2">
         <v>21.5</v>
@@ -4274,10 +4274,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>70.209999999999994</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="E3">
         <v>2010</v>
@@ -4308,10 +4308,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>74</v>
+        <v>73.69</v>
       </c>
       <c r="D5">
-        <v>15.8</v>
+        <v>15.74</v>
       </c>
       <c r="E5">
         <v>2009</v>
@@ -4325,10 +4325,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>41.4</v>
+        <v>41.36</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="E6">
         <v>2009</v>
@@ -4393,10 +4393,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>85.1</v>
+        <v>85.12</v>
       </c>
       <c r="D10">
-        <v>13.5</v>
+        <v>13.31</v>
       </c>
       <c r="E10">
         <v>2014</v>
@@ -4410,7 +4410,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>63.4</v>
+        <v>63.32</v>
       </c>
       <c r="D11">
         <v>35.06</v>
@@ -4430,7 +4430,7 @@
         <v>75.5</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>9.19</v>
       </c>
       <c r="E12">
         <v>2016</v>
